--- a/thong_tin_dai_hoc_duy_tan.xlsx
+++ b/thong_tin_dai_hoc_duy_tan.xlsx
@@ -57,7 +57,7 @@
     <t>Trường/Viện/Khoa trực thuộc</t>
   </si>
   <si>
-    <t>Trường Khoa học Máy tính, Trường Công nghệ, Khoa Y Dược, Trường Kinh tế, Trường Ngôn ngữ - Xã hội Nhân văn, Khoa Đào tạo Quốc tế, Trường Du lịch, Viện Quản lý Nam Khê.</t>
+    <t>Trường Khoa học Máy tính, Trường Công nghệ &amp; Kĩ Thuật, Khoa Y Dược, Trường Kinh tế &amp; Kinh doanh, Trường Ngôn ngữ - Xã hội Nhân văn, Khoa Đào tạo Quốc tế, Trường Du lịch, Viện Quản lý Nam Khê,Trung tâm Kỹ thuật và Công nghệ Việt - Nhật.</t>
   </si>
   <si>
     <t>Hệ đào tạo</t>
@@ -103,7 +103,7 @@
     <t>Hợp tác quốc tế</t>
   </si>
   <si>
-    <t>Carnegie Mellon ( CMU), Pen State( PSU), CalState Fullerton ( CSU), Purdue Northwest ( PNU), Troy, Keuka; Chương trình Du học 2+2, 3+1, 1+1+2</t>
+    <t>Carnegie Mellon ( CMU), Pen State( PSU), CalState Fullerton ( CSU), Purdue Northwest ( PNU), Troy, Keuka; Chương trình Du học 2+2, 3+1, 1+1+2.</t>
   </si>
   <si>
     <r>
@@ -231,14 +231,27 @@
         <rFont val="Arial"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Du học 1+1+2: https://duytan.edu.vn/tuyen-sinh/Page/EducationDetail.aspx?id=62</t>
+      <t xml:space="preserve">Du học 1+1+2: </t>
     </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://duytan.edu.vn/tuyen-sinh/Page/EducationDetail.aspx?id=62</t>
+    </r>
   </si>
   <si>
     <t>Xếp hạng &amp; Kiểm định</t>
   </si>
   <si>
-    <t>QS 2025: Top 495; ABET (CNTT, Điện - Điện tử); UNWTO TedQual (Du lịch); QS 2024: Kiến trúc 151-200, Du lịch 101-150, CNTT &amp; Điện - Điện tử 351-400, Y học 501-550; THE 2024: Kỹ thuật, Sức khỏe, XH, Tự nhiên 401-600</t>
+    <t>QS 2025 Xếp hạng Đại học: Top 495;
+ABET (CNTT, Điện - Điện tử); 
+UNWTO TedQual (Du lịch);
+QS 2025 Xếp hạng ngành đào tạo:Quản lý Khách sạn &amp; Giải trí (Top 51-100), Kiến trúc &amp; Môi trường Xây dựng (Top 101-150), Khoa học Máy tính &amp; Hệ thống Thông tin (Top 201-250), Khoa học Môi trường (Top 201-250), Kỹ thuật Xây dựng &amp; Kết cấu (Top 201-275), Dược &amp; Dược lý (Top 251-300), Kỹ thuật Điện – Điện tử (Top 251-300), Kinh tế học &amp; Kinh tế lượng (Top 351-400), Y học (Top 451-500), Vật lý &amp; Thiên văn học (Top 201-250), Hóa học (Top 301-350), Khoa học Vật liệu (Top 301-350), Cơ khí – Hàng không &amp; Quản lý (Top 401-450); 
+Times Higher Education (THE) 2025: Khoa học Máy tính (Top 501-600), Kỹ thuật - Công nghệ (Top 301-400), Kinh doanh &amp; Kinh tế (Top 601-800), Khoa học Xã hội, Y tế - Sức khỏe, Khoa học Sự sống (Top 401-500) và Khoa học Vật lý (Top 301-400).</t>
   </si>
   <si>
     <t>Thành tích sinh viên</t>
@@ -407,7 +420,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -761,7 +774,7 @@
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -772,7 +785,7 @@
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="7"/>

--- a/thong_tin_dai_hoc_duy_tan.xlsx
+++ b/thong_tin_dai_hoc_duy_tan.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="lngeksHBxWRXKExHVqLjJ87ZJE3ymj1xVQ/Z1/Azj+w="/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Nội dung</t>
   </si>
@@ -36,10 +47,16 @@
     <t>Trường Đại học Duy Tân được thành lập vào ngày 11/11/1994 theo Quyết định Số 666/TTg của Thủ tướng Chính phủ.Nhà giáo Ưu tú Lê Công Cơ là Hiệu trưởng đầu tiên.Năm 2018, Tiến sĩ Lê Nguyên Bảo tiếp nhận và trở thành Hiệu trưởng tiếp theo của Trường Đại học Duy Tân.Ngày 07/10/2024 Trường Đại học Duy Tân được chuyển thành Đại học Duy Tân và là Đại học thứ 8 tại Việt Nam.</t>
   </si>
   <si>
-    <t>Lãnh đạo hiện tại</t>
-  </si>
-  <si>
-    <t>Chủ tịch HĐQT: PGS. Lê Công Cơ. Hiệu trưởng: con trai của thầy Lê Công Cơ (TS. Lê Nguyên Bảo)</t>
+    <t>Chủ tịch hội đồng quản trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chủ tịch HĐQT: PGS. Lê Công Cơ. </t>
+  </si>
+  <si>
+    <t>Hiệu trưởng hiện tại</t>
+  </si>
+  <si>
+    <t>Hiệu trưởng: con trai của thầy Lê Công Cơ (TS. Lê Nguyên Bảo)</t>
   </si>
   <si>
     <t>Loại hình</t>
@@ -108,137 +125,153 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Carnegie Mellon ( CMU): </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <charset val="134"/>
       </rPr>
       <t>https://duytan.edu.vn/tuyen-sinh/Page/EnrollArticleViewDetail.aspx?id=461</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Pen State( PSU): </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <charset val="134"/>
       </rPr>
       <t>https://duytan.edu.vn/tuyen-sinh/Page/EnrollArticleViewDetail.aspx?id=462</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
 CalState Fullerton ( CSU): </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">https://duytan.edu.vn/tuyen-sinh/Page/EnrollArticleViewDetail.aspx?id=463
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Purdue Northwest ( PNU): </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">https://duytan.edu.vn/tuyen-sinh/Page/EnrollArticleViewDetail.aspx?id=819
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Troy: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">https://duytan.edu.vn/news/NewsDetail.aspx?id=4994&amp;pid=2064&amp;lang=vi-VN
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Keuka: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">https://duytan.edu.vn/news/NewsDetail.aspx?id=4994&amp;pid=2064&amp;lang=vi-VN
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Du học 3+1: https://duytan.edu.vn/tuyen-sinh/Page/EducationDetail.aspx?id=71
 Du học 2+2: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">https://duytan.edu.vn/tuyen-sinh/Page/EducationDetail.aspx?id=81
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Du học 1+1+2: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <charset val="134"/>
       </rPr>
       <t>https://duytan.edu.vn/tuyen-sinh/Page/EducationDetail.aspx?id=62</t>
     </r>
@@ -311,62 +344,413 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -380,71 +764,559 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -634,26 +1506,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.75"/>
-    <col customWidth="1" min="2" max="2" width="105.38"/>
-    <col customWidth="1" min="3" max="3" width="119.5"/>
-    <col customWidth="1" min="4" max="26" width="8.63"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="105.383333333333" customWidth="1"/>
+    <col min="3" max="3" width="119.5" customWidth="1"/>
+    <col min="4" max="26" width="8.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="13.8" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +1536,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" ht="13.8" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -671,7 +1545,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" ht="55.2" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -680,8 +1554,8 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="13" customHeight="1" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -689,8 +1563,8 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="13.8" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -698,17 +1572,17 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" ht="13.8" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="55.2" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -716,8 +1590,8 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="27.6" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -725,113 +1599,121 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+    <row r="9" ht="69" spans="1:3">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" ht="69" spans="1:3">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" ht="13.8" spans="1:3">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" ht="13.8" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" ht="27.6" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" ht="27.6" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" ht="27.6" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16">
+    <row r="16" ht="138" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" ht="409.5" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="7"/>
     </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
+    <row r="18" ht="13.8" spans="1:3">
+      <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="7"/>
     </row>
-    <row r="19">
-      <c r="A19" s="12" t="s">
+    <row r="19" ht="13.8" spans="1:3">
+      <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="7"/>
     </row>
-    <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+    <row r="20" ht="13.8" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="21" ht="13.8" spans="1:3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -1811,13 +2693,13 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C14"/>
+    <hyperlink ref="C15" r:id="rId1" display="Carnegie Mellon ( CMU): https://duytan.edu.vn/tuyen-sinh/Page/EnrollArticleViewDetail.aspx?id=461&#10;Pen State( PSU): https://duytan.edu.vn/tuyen-sinh/Page/EnrollArticleViewDetail.aspx?id=462 &#10;CalState Fullerton ( CSU): https://duytan.edu.vn/tuyen-sinh/Page/EnrollArticleViewDetail.aspx?id=463&#10;Purdue Northwest ( PNU): https://duytan.edu.vn/tuyen-sinh/Page/EnrollArticleViewDetail.aspx?id=819&#10;Troy: https://duytan.edu.vn/news/NewsDetail.aspx?id=4994&amp;pid=2064&amp;lang=vi-VN&#10;Keuka: https://duytan.edu.vn/news/NewsDetail.aspx?id=4994&amp;pid=2064&amp;lang=vi-VN&#10;Du học 3+1: https://duytan.edu.vn/tuyen-sinh/Page/EducationDetail.aspx?id=71&#10;Du học 2+2: https://duytan.edu.vn/tuyen-sinh/Page/EducationDetail.aspx?id=81&#10;Du học 1+1+2: https://duytan.edu.vn/tuyen-sinh/Page/EducationDetail.aspx?id=62"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>